--- a/Tirocinio/output/sintesi.xlsx
+++ b/Tirocinio/output/sintesi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,45 +439,20 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>AAABA</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
-        <is>
-          <t>ABA</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>ABABA</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
         <is>
           <t>tempo</t>
         </is>
@@ -485,116 +460,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>165</v>
+        <v>623</v>
       </c>
       <c r="B2" t="n">
-        <v>165</v>
+        <v>623</v>
       </c>
       <c r="C2" t="n">
-        <v>636</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>96</v>
-      </c>
-      <c r="H2" t="n">
-        <v>32</v>
-      </c>
-      <c r="I2" t="n">
-        <v>588</v>
-      </c>
-      <c r="J2" t="n">
-        <v>82</v>
-      </c>
-      <c r="K2" t="n">
-        <v>650</v>
-      </c>
-      <c r="L2" t="n">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>91</v>
-      </c>
-      <c r="B3" t="n">
-        <v>256</v>
-      </c>
-      <c r="C3" t="n">
-        <v>726</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E3" t="n">
-        <v>96</v>
-      </c>
-      <c r="F3" t="n">
-        <v>158</v>
-      </c>
-      <c r="G3" t="n">
-        <v>164</v>
-      </c>
-      <c r="H3" t="n">
-        <v>32</v>
-      </c>
-      <c r="I3" t="n">
-        <v>646</v>
-      </c>
-      <c r="J3" t="n">
-        <v>54</v>
-      </c>
-      <c r="K3" t="n">
-        <v>650</v>
-      </c>
-      <c r="L3" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>91</v>
-      </c>
-      <c r="B4" t="n">
-        <v>347</v>
-      </c>
-      <c r="C4" t="n">
-        <v>636</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6</v>
-      </c>
-      <c r="E4" t="n">
-        <v>92</v>
-      </c>
-      <c r="F4" t="n">
-        <v>162</v>
-      </c>
-      <c r="G4" t="n">
-        <v>164</v>
-      </c>
-      <c r="H4" t="n">
-        <v>36</v>
-      </c>
-      <c r="I4" t="n">
-        <v>640</v>
-      </c>
-      <c r="J4" t="n">
-        <v>50</v>
-      </c>
-      <c r="K4" t="n">
-        <v>650</v>
-      </c>
-      <c r="L4" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
